--- a/DataSets/BotTimeOverRound.xlsx
+++ b/DataSets/BotTimeOverRound.xlsx
@@ -8,13 +8,55 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\Dissertation_Artefact\DataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31300C23-6B58-47D8-AD17-2B461EB098F8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5C9ADE-4532-48E3-B324-A489071E94BC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12225" xr2:uid="{B722AB8E-F40D-49C5-9ADA-A2DD265BE197}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$10</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$11</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$10:$J$10</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$B$11:$J$11</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$2:$J$2</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$3:$J$3</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$B$4:$J$4</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$B$5:$J$5</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$B$6:$J$6</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$B$7:$J$7</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$B$8:$J$8</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$B$9:$J$9</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$2</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$A$10</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$A$11</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$A$2</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$A$3</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$A$4</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$A$5</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$A$6</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$A$7</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$A$8</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$A$9</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$3</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$B$10:$J$10</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$B$11:$J$11</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$B$2:$J$2</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$B$3:$J$3</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$B$4:$J$4</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$B$5:$J$5</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$B$6:$J$6</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$B$7:$J$7</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$B$8:$J$8</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$B$9:$J$9</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$4</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$5</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$6</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$A$7</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$A$8</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$A$9</definedName>
+  </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -187,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -207,6 +249,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,15 +564,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87F92E1-2CDF-4DBA-B710-C87DBDB53130}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:K23"/>
+      <selection activeCell="AC19" sqref="AC19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,7 +607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -592,8 +638,12 @@
       <c r="J2" s="4">
         <v>6.07</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="7">
+        <f>SUM(B2:J2)/9</f>
+        <v>6.1577777777777776</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -624,8 +674,12 @@
       <c r="J3" s="4">
         <v>17.52</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="K3" s="7">
+        <f t="shared" ref="K3:K11" si="0">SUM(B3:J3)/9</f>
+        <v>12.666666666666666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -656,8 +710,12 @@
       <c r="J4" s="4">
         <v>10.59</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="K4" s="7">
+        <f t="shared" si="0"/>
+        <v>11.755555555555556</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -688,8 +746,12 @@
       <c r="J5" s="4">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="K5" s="7">
+        <f t="shared" si="0"/>
+        <v>15.72777777777778</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -720,8 +782,12 @@
       <c r="J6" s="4">
         <v>14.06</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="7">
+        <f t="shared" si="0"/>
+        <v>14.198888888888892</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
@@ -752,8 +818,12 @@
       <c r="J7" s="4">
         <v>12.22</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="7">
+        <f t="shared" si="0"/>
+        <v>14.157777777777778</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -784,8 +854,12 @@
       <c r="J8" s="4">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="K8" s="7">
+        <f t="shared" si="0"/>
+        <v>15.321111111111113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
@@ -816,8 +890,12 @@
       <c r="J9" s="4">
         <v>9.56</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="7">
+        <f t="shared" si="0"/>
+        <v>17.623333333333335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
@@ -848,8 +926,12 @@
       <c r="J10" s="4">
         <v>14.53</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="K10" s="7">
+        <f t="shared" si="0"/>
+        <v>17.126666666666669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
@@ -879,6 +961,10 @@
       </c>
       <c r="J11" s="4">
         <v>16.37</v>
+      </c>
+      <c r="K11" s="7">
+        <f t="shared" si="0"/>
+        <v>15.986666666666666</v>
       </c>
     </row>
   </sheetData>
